--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5CC0BC-04D2-41AB-8297-530B300A02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790C060-547D-4247-AFC6-71801DFA657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="510">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1566,9 +1566,6 @@
   </si>
   <si>
     <t>A faire</t>
-  </si>
-  <si>
-    <t>Liste déroulante, rajouter un champ vide et faire si index = 0 pas de changement</t>
   </si>
   <si>
     <t xml:space="preserve">Formulaire demande de changement: </t>
@@ -2034,15 +2031,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2155,13 +2152,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2199,7 +2196,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +2234,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2289,7 +2286,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2315,7 +2312,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2367,7 +2364,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2445,7 +2442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2497,7 +2494,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>93</v>
       </c>
@@ -2537,7 +2534,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>94</v>
       </c>
@@ -2551,7 +2548,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>95</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>96</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>97</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>98</v>
       </c>
@@ -2607,7 +2604,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>99</v>
       </c>
@@ -2621,7 +2618,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>100</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>101</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>102</v>
       </c>
@@ -2663,7 +2660,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>103</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>104</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>105</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>106</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>107</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>108</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>109</v>
       </c>
@@ -2761,7 +2758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>110</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>111</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>112</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>113</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>114</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>115</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>116</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
         <v>117</v>
       </c>
@@ -2873,7 +2870,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
         <v>118</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>119</v>
       </c>
@@ -2901,7 +2898,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>120</v>
       </c>
@@ -2915,7 +2912,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>121</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>122</v>
       </c>
@@ -2943,7 +2940,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>123</v>
       </c>
@@ -2957,7 +2954,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>124</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>125</v>
       </c>
@@ -2985,7 +2982,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>126</v>
       </c>
@@ -2999,7 +2996,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>127</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>128</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>129</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>130</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>131</v>
       </c>
@@ -3069,7 +3066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>132</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>133</v>
       </c>
@@ -3097,7 +3094,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G55" t="s">
         <v>134</v>
       </c>
@@ -3111,7 +3108,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
         <v>135</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>136</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G58" t="s">
         <v>137</v>
       </c>
@@ -3153,7 +3150,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G59" t="s">
         <v>138</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G60" t="s">
         <v>139</v>
       </c>
@@ -3181,7 +3178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G61" t="s">
         <v>140</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G62" t="s">
         <v>141</v>
       </c>
@@ -3209,7 +3206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G63" t="s">
         <v>142</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G64" t="s">
         <v>143</v>
       </c>
@@ -3237,7 +3234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G65" t="s">
         <v>144</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G66" t="s">
         <v>145</v>
       </c>
@@ -3265,7 +3262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>146</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>147</v>
       </c>
@@ -3293,7 +3290,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G69" t="s">
         <v>148</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G70" t="s">
         <v>149</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G71" t="s">
         <v>150</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G72" t="s">
         <v>151</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G73" t="s">
         <v>152</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G74" t="s">
         <v>153</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G75" t="s">
         <v>154</v>
       </c>
@@ -3391,7 +3388,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G76" t="s">
         <v>155</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
         <v>156</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
         <v>157</v>
       </c>
@@ -3433,7 +3430,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
         <v>158</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
         <v>159</v>
       </c>
@@ -3461,7 +3458,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
         <v>160</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
         <v>161</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
         <v>162</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
         <v>163</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
         <v>164</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
         <v>165</v>
       </c>
@@ -3545,7 +3542,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
         <v>166</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
         <v>167</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G89" t="s">
         <v>168</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G90" t="s">
         <v>169</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
         <v>170</v>
       </c>
@@ -3615,7 +3612,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
         <v>171</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
         <v>172</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G94" t="s">
         <v>173</v>
       </c>
@@ -3657,7 +3654,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
         <v>174</v>
       </c>
@@ -3671,7 +3668,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G96" t="s">
         <v>175</v>
       </c>
@@ -3685,7 +3682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
         <v>176</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
         <v>177</v>
       </c>
@@ -3713,7 +3710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G99" t="s">
         <v>178</v>
       </c>
@@ -3727,7 +3724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
         <v>179</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G101" t="s">
         <v>180</v>
       </c>
@@ -3755,7 +3752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
         <v>181</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
         <v>182</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G104" t="s">
         <v>183</v>
       </c>
@@ -3797,7 +3794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
         <v>184</v>
       </c>
@@ -3811,7 +3808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
         <v>185</v>
       </c>
@@ -3825,7 +3822,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
         <v>186</v>
       </c>
@@ -3839,7 +3836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
         <v>187</v>
       </c>
@@ -3853,7 +3850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G109" t="s">
         <v>188</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G110" t="s">
         <v>189</v>
       </c>
@@ -3881,7 +3878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
         <v>190</v>
       </c>
@@ -3895,7 +3892,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
         <v>191</v>
       </c>
@@ -3909,7 +3906,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
         <v>192</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G114" t="s">
         <v>193</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G115" t="s">
         <v>194</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G116" t="s">
         <v>195</v>
       </c>
@@ -3965,7 +3962,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
         <v>196</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
         <v>197</v>
       </c>
@@ -3993,7 +3990,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
         <v>198</v>
       </c>
@@ -4007,7 +4004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G120" t="s">
         <v>199</v>
       </c>
@@ -4021,7 +4018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G121" t="s">
         <v>200</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
         <v>201</v>
       </c>
@@ -4064,22 +4061,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -4100,7 +4097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>499</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>480</v>
       </c>
@@ -4136,7 +4133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>481</v>
       </c>
@@ -4157,16 +4154,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4178,7 +4175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4216,12 +4213,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -4230,7 +4227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>475</v>
       </c>
@@ -4244,7 +4241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4258,7 +4255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -4272,7 +4269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -4295,7 +4292,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.52631578947368418</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4304,7 +4301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -4318,7 +4315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>478</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>479</v>
       </c>
@@ -4360,7 +4357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>503</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>504</v>
       </c>
@@ -4388,7 +4385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>48</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>49</v>
       </c>
@@ -4404,7 +4401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>50</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>51</v>
       </c>
@@ -4420,7 +4417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>52</v>
       </c>
@@ -4428,22 +4425,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>498</v>
       </c>
@@ -4463,21 +4460,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4491,7 +4488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>483</v>
       </c>
@@ -4527,7 +4524,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>484</v>
       </c>
@@ -4538,12 +4535,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>486</v>
       </c>
@@ -4554,69 +4551,64 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790C060-547D-4247-AFC6-71801DFA657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D057EF81-FBB5-4D7C-A43A-9EAB7F280018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="513">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1569,6 +1569,15 @@
   </si>
   <si>
     <t xml:space="preserve">Formulaire demande de changement: </t>
+  </si>
+  <si>
+    <t>Performance: Modification</t>
+  </si>
+  <si>
+    <t>Performance: Suppression</t>
+  </si>
+  <si>
+    <t>Performance: Création</t>
   </si>
 </sst>
 </file>
@@ -4061,7 +4070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4460,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4611,6 +4620,21 @@
         <v>497</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D057EF81-FBB5-4D7C-A43A-9EAB7F280018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46AC20B-1B5A-4641-9CB7-F6655CAC8474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="514">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1578,6 +1578,9 @@
   </si>
   <si>
     <t>Performance: Création</t>
+  </si>
+  <si>
+    <t>Creation: Fermer toutes les sous fenetres</t>
   </si>
 </sst>
 </file>
@@ -2040,15 +2043,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2161,13 +2164,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>93</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>94</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>95</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>96</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>97</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>98</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>99</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>100</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>101</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>102</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>103</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>104</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>105</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>106</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>107</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>108</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>109</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>110</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>111</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>112</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>113</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>114</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>115</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>116</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>117</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>118</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>119</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>120</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>121</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>122</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>123</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>124</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>125</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>126</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>127</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>128</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>129</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>130</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>131</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>132</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>133</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>134</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>135</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>136</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>137</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>138</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>139</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>140</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>141</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>142</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>143</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>144</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>145</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>146</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>147</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>148</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>149</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>150</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>151</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>152</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>153</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>154</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>155</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>156</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>157</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>158</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>159</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>160</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>161</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>162</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>163</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>164</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>165</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>166</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>167</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>168</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>169</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>170</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>171</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>172</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>173</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>174</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>175</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>176</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>177</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>178</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>179</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>180</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>181</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>182</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>183</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>184</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
         <v>185</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>186</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>187</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>188</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>189</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>190</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>191</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
         <v>192</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
         <v>193</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
         <v>194</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
         <v>195</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>196</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>197</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>198</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
         <v>199</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
         <v>200</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>201</v>
       </c>
@@ -4074,18 +4077,18 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>499</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>480</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>481</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>475</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>478</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>479</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>503</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>504</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>48</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>49</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>50</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>51</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>52</v>
       </c>
@@ -4434,22 +4437,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>498</v>
       </c>
@@ -4469,21 +4472,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>483</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>484</v>
       </c>
@@ -4544,12 +4547,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>486</v>
       </c>
@@ -4560,79 +4563,84 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46AC20B-1B5A-4641-9CB7-F6655CAC8474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC1B29-BB1C-4B2D-9656-736916DEC017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="522">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1581,6 +1581,30 @@
   </si>
   <si>
     <t>Creation: Fermer toutes les sous fenetres</t>
+  </si>
+  <si>
+    <t>Faire un signal de fermeture transmis à toutes les fenetres</t>
+  </si>
+  <si>
+    <t>Création executable: crypter le code</t>
+  </si>
+  <si>
+    <t>Automatiser les champs de création ou tapper flemme ?</t>
+  </si>
+  <si>
+    <t>Ajouter code dépôt dans listes déroulantes</t>
+  </si>
+  <si>
+    <t>Activer modification sur tableau principal</t>
+  </si>
+  <si>
+    <t>Comprendre comment marche le putain de excel de merde</t>
+  </si>
+  <si>
+    <t>Mettre en place restiction des données dépôt et région (modele)</t>
+  </si>
+  <si>
+    <t>Améliorer le filtre (technique)</t>
   </si>
 </sst>
 </file>
@@ -4073,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,7 +4199,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4216,7 +4240,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4304,7 +4328,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.63157894736842102</v>
+        <v>0.52</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4398,6 +4422,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="H20" t="s">
         <v>48</v>
       </c>
@@ -4406,6 +4436,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="H21" t="s">
         <v>49</v>
       </c>
@@ -4414,6 +4450,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="H22" t="s">
         <v>50</v>
       </c>
@@ -4422,6 +4464,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
@@ -4430,11 +4478,25 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="H24" t="s">
         <v>52</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4472,16 +4534,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4608,39 +4670,47 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>513</v>
+      </c>
+      <c r="B24" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC1B29-BB1C-4B2D-9656-736916DEC017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846EBAE5-58A3-4CF3-BF2F-66A496DC9323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
@@ -1598,13 +1598,13 @@
     <t>Activer modification sur tableau principal</t>
   </si>
   <si>
-    <t>Comprendre comment marche le putain de excel de merde</t>
-  </si>
-  <si>
     <t>Mettre en place restiction des données dépôt et région (modele)</t>
   </si>
   <si>
     <t>Améliorer le filtre (technique)</t>
+  </si>
+  <si>
+    <t>Comprendre comment marche le excel</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4098,7 +4098,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4450,11 +4450,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>517</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>50</v>
@@ -4478,11 +4478,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>519</v>
+      <c r="A24" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B25">
         <v>0</v>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846EBAE5-58A3-4CF3-BF2F-66A496DC9323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77834B79-FBA0-4B15-9083-01EB6F78ED41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="32745" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="523">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1605,6 +1605,9 @@
   </si>
   <si>
     <t>Comprendre comment marche le excel</t>
+  </si>
+  <si>
+    <t>logWindow: griser pendant chargement</t>
   </si>
 </sst>
 </file>
@@ -4097,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4306,11 +4309,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="s">
         <v>40</v>
@@ -4328,7 +4331,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4534,10 +4537,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,6 +4716,11 @@
         <v>514</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77834B79-FBA0-4B15-9083-01EB6F78ED41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E27D93E-6241-4994-A559-0F4771AF7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32745" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="35190" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="524">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1608,6 +1608,9 @@
   </si>
   <si>
     <t>logWindow: griser pendant chargement</t>
+  </si>
+  <si>
+    <t>logwindow: sur entree lancer</t>
   </si>
 </sst>
 </file>
@@ -4537,7 +4540,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
@@ -4721,6 +4724,11 @@
         <v>522</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E27D93E-6241-4994-A559-0F4771AF7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4405F2-7032-4E94-92A0-560893383CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="525">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1611,6 +1611,9 @@
   </si>
   <si>
     <t>logwindow: sur entree lancer</t>
+  </si>
+  <si>
+    <t>Faire un fichier requete quand meme</t>
   </si>
 </sst>
 </file>
@@ -4540,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,6 +4732,11 @@
         <v>523</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4405F2-7032-4E94-92A0-560893383CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86D2F2-B55C-4D05-A652-475B7B7503BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="519">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1469,12 +1469,6 @@
     <t>Faire formulaire demande de changement (maquette + form</t>
   </si>
   <si>
-    <t>Tâche annexes</t>
-  </si>
-  <si>
-    <t>DEMANDE A FRANCOIS LA LISTE DES DONNEES !!!</t>
-  </si>
-  <si>
     <t>Filtre sur tableau (combo box ou vrai filtre)</t>
   </si>
   <si>
@@ -1487,9 +1481,6 @@
     <t>Faire la repartition du DF vers les onglets en finalité</t>
   </si>
   <si>
-    <t xml:space="preserve">MODIFIER DF AFFICHABLE </t>
-  </si>
-  <si>
     <t>Modif: Récupérer la ligne grâce au code BRICO</t>
   </si>
   <si>
@@ -1514,15 +1505,6 @@
     <t>Création: Concatener et mettre à la fin du df</t>
   </si>
   <si>
-    <t>Sauvegarde Excel: Faire un script pour générer le code pour chaque onglet</t>
-  </si>
-  <si>
-    <t>Sauvegarde Excel: Rerouter le df vers chaque Onglet</t>
-  </si>
-  <si>
-    <t>Sauvegarde Excel: Ouvrir chaque onglet</t>
-  </si>
-  <si>
     <t>Formulaire demande de changement: Faire le form avec tableau changeable</t>
   </si>
   <si>
@@ -1535,9 +1517,6 @@
     <t>Sharepoint: Panique</t>
   </si>
   <si>
-    <t>DEMANER OU POSER LE TRUC? DANS UN EXCEL ?</t>
-  </si>
-  <si>
     <t>Relier les champs au dataframe (pour la création)</t>
   </si>
   <si>
@@ -1613,7 +1592,10 @@
     <t>logwindow: sur entree lancer</t>
   </si>
   <si>
-    <t>Faire un fichier requete quand meme</t>
+    <t>Faire un fichier requete quand meme pas sur en fait</t>
+  </si>
+  <si>
+    <t>Ssauvegarde et lecture du excel</t>
   </si>
 </sst>
 </file>
@@ -4104,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,7 +4112,7 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -4143,11 +4125,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>499</v>
+      <c r="A2" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" t="s">
@@ -4156,14 +4138,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -4179,15 +4161,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>481</v>
+      <c r="A4" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -4208,7 +4190,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4249,7 +4231,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4315,11 +4297,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>40</v>
@@ -4337,7 +4319,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.62</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4376,7 +4358,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4390,7 +4372,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4404,7 +4386,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4418,7 +4400,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4432,7 +4414,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4446,7 +4428,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4460,7 +4442,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4474,7 +4456,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4488,7 +4470,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4502,30 +4484,18 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>498</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4543,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4598,143 +4568,128 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C5" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>491</v>
+      <c r="A12" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>494</v>
+      <c r="A15" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B24" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86D2F2-B55C-4D05-A652-475B7B7503BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A77EF-8370-414A-827D-9EF88EC69716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="520">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1596,6 +1596,9 @@
   </si>
   <si>
     <t>Ssauvegarde et lecture du excel</t>
+  </si>
+  <si>
+    <t>Regarder si optimisation possible pour saisie requete</t>
   </si>
 </sst>
 </file>
@@ -4086,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,7 +4193,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4231,7 +4234,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4319,7 +4322,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.73076923076923073</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4389,7 +4392,7 @@
         <v>496</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -4496,6 +4499,14 @@
       </c>
       <c r="B26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A77EF-8370-414A-827D-9EF88EC69716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20419225-48FA-4B90-B484-6A64B902D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="31500" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -1532,9 +1532,6 @@
     <t>Gérer la transmission de la demande de changement</t>
   </si>
   <si>
-    <t>Améliorer le filtre (sur pression touche entrée et sur colonnes selectionnées</t>
-  </si>
-  <si>
     <t>Pas besoin le .loc garde le numéro de ligne</t>
   </si>
   <si>
@@ -1577,12 +1574,6 @@
     <t>Activer modification sur tableau principal</t>
   </si>
   <si>
-    <t>Mettre en place restiction des données dépôt et région (modele)</t>
-  </si>
-  <si>
-    <t>Améliorer le filtre (technique)</t>
-  </si>
-  <si>
     <t>Comprendre comment marche le excel</t>
   </si>
   <si>
@@ -1599,6 +1590,15 @@
   </si>
   <si>
     <t>Regarder si optimisation possible pour saisie requete</t>
+  </si>
+  <si>
+    <t>Améliorer le filtre (technique)(sur pression touche entrée et sur colonnes selectionnées)</t>
+  </si>
+  <si>
+    <t>Mettre en place restiction des données dépôt et région (modele) (jpense on s'en bat les couilles</t>
+  </si>
+  <si>
+    <t>Sécuriser les informations sensibles</t>
   </si>
 </sst>
 </file>
@@ -4091,13 +4091,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.72222222222222221</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4402,8 +4402,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>497</v>
+      <c r="A19" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4430,11 +4430,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>509</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>49</v>
@@ -4472,11 +4472,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>514</v>
+      <c r="A24" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -4486,27 +4486,27 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>513</v>
+      <c r="A25" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>519</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +4582,10 @@
         <v>480</v>
       </c>
       <c r="B4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" t="s">
         <v>498</v>
-      </c>
-      <c r="C4" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,10 +4593,10 @@
         <v>481</v>
       </c>
       <c r="B5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" t="s">
         <v>498</v>
-      </c>
-      <c r="C5" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,10 +4609,10 @@
         <v>483</v>
       </c>
       <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
         <v>500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4647,7 +4647,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,7 +4657,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4667,40 +4667,40 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" t="s">
         <v>506</v>
-      </c>
-      <c r="B21" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20419225-48FA-4B90-B484-6A64B902D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85579463-EE58-4927-8A1D-9BCB4BD732C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31500" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
@@ -1621,7 +1621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1649,12 +1649,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1698,7 +1692,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4091,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4193,7 +4186,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4322,7 +4315,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.7407407407407407</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4502,11 +4495,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85579463-EE58-4927-8A1D-9BCB4BD732C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913297FC-B7B5-41E3-A584-474A4BB360FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="523">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1599,6 +1599,15 @@
   </si>
   <si>
     <t>Sécuriser les informations sensibles</t>
+  </si>
+  <si>
+    <t>Ajouter un indice du nombre de requetes de changement</t>
+  </si>
+  <si>
+    <t>Faire la fenetre d'étude des requetes de changement</t>
+  </si>
+  <si>
+    <t>Fonction de traitement des requetes de changement</t>
   </si>
 </sst>
 </file>
@@ -2054,15 +2063,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2175,13 +2184,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2465,7 +2474,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>93</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>94</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>95</v>
       </c>
@@ -2585,7 +2594,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>96</v>
       </c>
@@ -2599,7 +2608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>97</v>
       </c>
@@ -2613,7 +2622,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>98</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>99</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>100</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>101</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>102</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>103</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>104</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>105</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>106</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>107</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>108</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>109</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>110</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>111</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>112</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>113</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>114</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>115</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +2888,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
         <v>117</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
         <v>118</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>119</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>120</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>121</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>122</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>123</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>124</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>125</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>126</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>127</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>128</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>129</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>130</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>131</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>132</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>133</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G55" t="s">
         <v>134</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
         <v>135</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>136</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G58" t="s">
         <v>137</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G59" t="s">
         <v>138</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G60" t="s">
         <v>139</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G61" t="s">
         <v>140</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G62" t="s">
         <v>141</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G63" t="s">
         <v>142</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G64" t="s">
         <v>143</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G65" t="s">
         <v>144</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G66" t="s">
         <v>145</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>146</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>147</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G69" t="s">
         <v>148</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G70" t="s">
         <v>149</v>
       </c>
@@ -3341,7 +3350,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G71" t="s">
         <v>150</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G72" t="s">
         <v>151</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G73" t="s">
         <v>152</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G74" t="s">
         <v>153</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G75" t="s">
         <v>154</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G76" t="s">
         <v>155</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
         <v>156</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
         <v>157</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
         <v>158</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
         <v>159</v>
       </c>
@@ -3481,7 +3490,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
         <v>160</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
         <v>161</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
         <v>162</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
         <v>163</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
         <v>164</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
         <v>165</v>
       </c>
@@ -3565,7 +3574,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
         <v>166</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
         <v>167</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G89" t="s">
         <v>168</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G90" t="s">
         <v>169</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
         <v>170</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
         <v>171</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
         <v>172</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G94" t="s">
         <v>173</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
         <v>174</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G96" t="s">
         <v>175</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
         <v>176</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
         <v>177</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G99" t="s">
         <v>178</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
         <v>179</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G101" t="s">
         <v>180</v>
       </c>
@@ -3775,7 +3784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
         <v>181</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
         <v>182</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G104" t="s">
         <v>183</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
         <v>184</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
         <v>185</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
         <v>186</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
         <v>187</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G109" t="s">
         <v>188</v>
       </c>
@@ -3887,7 +3896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G110" t="s">
         <v>189</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
         <v>190</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
         <v>191</v>
       </c>
@@ -3929,7 +3938,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
         <v>192</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G114" t="s">
         <v>193</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G115" t="s">
         <v>194</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G116" t="s">
         <v>195</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
         <v>196</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
         <v>197</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
         <v>198</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G120" t="s">
         <v>199</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G121" t="s">
         <v>200</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
         <v>201</v>
       </c>
@@ -4082,24 +4091,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>492</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>478</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>479</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4186,7 +4195,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4198,7 +4207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4218,7 +4227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4227,7 +4236,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4236,7 +4245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>475</v>
       </c>
@@ -4264,7 +4273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -4306,7 +4315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -4315,7 +4324,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.7592592592592593</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4324,7 +4333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>476</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>477</v>
       </c>
@@ -4380,12 +4389,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>496</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -4394,7 +4403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>518</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>508</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>509</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>510</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>511</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>517</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>515</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>516</v>
       </c>
@@ -4494,12 +4503,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4523,15 +4556,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +4578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4559,7 +4592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4570,7 +4603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>480</v>
       </c>
@@ -4581,7 +4614,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>481</v>
       </c>
@@ -4592,12 +4625,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>483</v>
       </c>
@@ -4608,72 +4641,72 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -4681,17 +4714,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>514</v>
       </c>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913297FC-B7B5-41E3-A584-474A4BB360FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E841172B-EF53-4A33-ACA8-843963756C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="524">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1608,6 +1608,9 @@
   </si>
   <si>
     <t>Fonction de traitement des requetes de changement</t>
+  </si>
+  <si>
+    <t>Traitement des requetes lors de la création des requetes</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1701,6 +1704,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2063,15 +2067,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2096,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2184,13 +2188,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>93</v>
       </c>
@@ -2566,7 +2570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>94</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>95</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>96</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>97</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>98</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>99</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>100</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>101</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>102</v>
       </c>
@@ -2692,7 +2696,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>103</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>104</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>105</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>106</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>107</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>108</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>109</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>110</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>111</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>112</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>113</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>114</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>115</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>116</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>117</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>118</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>119</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>120</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>121</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>122</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>123</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>124</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>125</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>126</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>127</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>128</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>129</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>130</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>131</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>132</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>133</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>134</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>135</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>136</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>137</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>138</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>139</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>140</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>141</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>142</v>
       </c>
@@ -3252,7 +3256,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>143</v>
       </c>
@@ -3266,7 +3270,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>144</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>145</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>146</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>147</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>148</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>149</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>150</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>151</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>152</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>153</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>154</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>155</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>156</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>157</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>158</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>159</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>160</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>161</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>162</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>163</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>164</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>165</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>166</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>167</v>
       </c>
@@ -3602,7 +3606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>168</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>169</v>
       </c>
@@ -3630,7 +3634,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>170</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>171</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>172</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>173</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>174</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>175</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>176</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>177</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>178</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>179</v>
       </c>
@@ -3770,7 +3774,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>180</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>181</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>182</v>
       </c>
@@ -3812,7 +3816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>183</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>184</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
         <v>185</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>186</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>187</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>188</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>189</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>190</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>191</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
         <v>192</v>
       </c>
@@ -3952,7 +3956,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
         <v>193</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
         <v>194</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
         <v>195</v>
       </c>
@@ -3994,7 +3998,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>196</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>197</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>198</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
         <v>199</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
         <v>200</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>201</v>
       </c>
@@ -4091,24 +4095,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>492</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>478</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>479</v>
       </c>
@@ -4186,7 +4190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4207,7 +4211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4236,7 +4240,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4245,7 +4249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>475</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -4324,7 +4328,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.7</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4333,7 +4337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>476</v>
       </c>
@@ -4375,7 +4379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>477</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>496</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>518</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>508</v>
       </c>
@@ -4431,7 +4435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>509</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>510</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>511</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>517</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>515</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>516</v>
       </c>
@@ -4503,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>519</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>520</v>
       </c>
@@ -4519,21 +4523,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B582:B1048576 B1:B571">
@@ -4556,15 +4571,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4578,7 +4593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4592,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>480</v>
       </c>
@@ -4614,7 +4629,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>481</v>
       </c>
@@ -4625,12 +4640,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>483</v>
       </c>
@@ -4641,72 +4656,72 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -4714,17 +4729,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>514</v>
       </c>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E841172B-EF53-4A33-ACA8-843963756C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6253E7-BBD1-4F11-87C8-5F9F834BA0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="525">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1611,6 +1611,9 @@
   </si>
   <si>
     <t>Traitement des requetes lors de la création des requetes</t>
+  </si>
+  <si>
+    <t>Checker l'écriture sur sharepoing</t>
   </si>
 </sst>
 </file>
@@ -4095,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4240,7 +4243,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4328,7 +4331,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.67741935483870963</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4394,7 +4397,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>496</v>
       </c>
       <c r="B18">
@@ -4408,11 +4411,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>518</v>
+      <c r="A19" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>47</v>
@@ -4422,11 +4425,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>508</v>
+      <c r="A20" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>48</v>
@@ -4437,7 +4440,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4450,11 +4453,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>510</v>
+      <c r="A22" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>50</v>
@@ -4465,7 +4468,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4479,7 +4482,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4493,7 +4496,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4501,7 +4504,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4509,49 +4512,48 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>520</v>
+      <c r="A28" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="A30" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B582:B1048576 B1:B571">
+  <conditionalFormatting sqref="B582:B1048576 B32:B571 B1:B29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6253E7-BBD1-4F11-87C8-5F9F834BA0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D5EACD-12B3-4DB3-AC2B-8656A66E5685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.7931034482758621</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4535,8 +4535,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>524</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4553,7 +4556,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B582:B1048576 B32:B571 B1:B29">
+  <conditionalFormatting sqref="B582:B1048576 B32:B571 B1:B30">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D5EACD-12B3-4DB3-AC2B-8656A66E5685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACCC3B-EA46-4645-89DB-CE115301B9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
     <sheet name="MDPS" sheetId="5" r:id="rId2"/>
     <sheet name="Création" sheetId="4" r:id="rId3"/>
-    <sheet name="Détails" sheetId="3" r:id="rId4"/>
+    <sheet name="UI" sheetId="6" r:id="rId4"/>
+    <sheet name="Détails" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="547">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1614,6 +1615,72 @@
   </si>
   <si>
     <t>Checker l'écriture sur sharepoing</t>
+  </si>
+  <si>
+    <t>Atuom Creat</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>MAIN ADMIN</t>
+  </si>
+  <si>
+    <t>MAIN NON ADMIN</t>
+  </si>
+  <si>
+    <t>DEMANDE MAJ</t>
+  </si>
+  <si>
+    <t>TRAITEMENT MAJ</t>
+  </si>
+  <si>
+    <t>SUPPRESSION</t>
+  </si>
+  <si>
+    <t>Logo Requete changement</t>
+  </si>
+  <si>
+    <t>Logo Confirmer modif</t>
+  </si>
+  <si>
+    <t>Voir si design pour table ?</t>
+  </si>
+  <si>
+    <t>Police d'écriture table</t>
+  </si>
+  <si>
+    <t>Retirer le spacing des layouts</t>
+  </si>
+  <si>
+    <t>Faire génération des boutons</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Centrer sur selection</t>
+  </si>
+  <si>
+    <t>StyleBoutons</t>
+  </si>
+  <si>
+    <t>Champ de recherche</t>
+  </si>
+  <si>
+    <t>Background etc</t>
+  </si>
+  <si>
+    <t>Background ETC</t>
+  </si>
+  <si>
+    <t>Entourer le titre</t>
+  </si>
+  <si>
+    <t>Faire les boutons</t>
+  </si>
+  <si>
+    <t>QSS</t>
   </si>
 </sst>
 </file>
@@ -4100,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,7 +4310,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4331,7 +4398,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.76666666666666672</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4542,6 +4609,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
@@ -4556,7 +4631,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B582:B1048576 B32:B571 B1:B30">
+  <conditionalFormatting sqref="B582:B1048576 B1:B571">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4569,6 +4644,133 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F132DCEF-7061-4387-96EC-D5B5BC9E0568}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
   <dimension ref="A1:D24"/>
   <sheetViews>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACCC3B-EA46-4645-89DB-CE115301B9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FA194-A626-40D1-9FC6-648996F92EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="5385" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="559">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1681,6 +1681,42 @@
   </si>
   <si>
     <t>QSS</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t>utiliser dictionnaire</t>
+  </si>
+  <si>
+    <t>créer un dico de dico</t>
+  </si>
+  <si>
+    <t>chaque dico a les boutonsblabalbal</t>
+  </si>
+  <si>
+    <t>Soucis lecture requetes parfois</t>
+  </si>
+  <si>
+    <t>Faire un truc comme sur Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>modif bug si traitement</t>
+  </si>
+  <si>
+    <t>Pouvoir copier coller depuis le tablea</t>
+  </si>
+  <si>
+    <t>Ajouter icone si données remplies ?</t>
+  </si>
+  <si>
+    <t>Rechcherche enelver case sensitiv</t>
+  </si>
+  <si>
+    <t>Centrer le tout</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1774,7 +1810,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2123,7 +2158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4617,9 +4652,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-    </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>518</v>
@@ -4645,16 +4677,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F132DCEF-7061-4387-96EC-D5B5BC9E0568}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -4696,6 +4728,9 @@
       <c r="C2" s="5" t="s">
         <v>532</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>543</v>
       </c>
@@ -4708,10 +4743,10 @@
       <c r="K2" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>539</v>
       </c>
     </row>
@@ -4730,7 +4765,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>534</v>
       </c>
       <c r="D4" t="s">
@@ -4739,30 +4774,94 @@
       <c r="I4" s="5" t="s">
         <v>545</v>
       </c>
+      <c r="K4" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FA194-A626-40D1-9FC6-648996F92EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A86D6-4CD9-49B9-B5D9-8ACFEAA7013F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="560">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1716,7 +1716,10 @@
     <t>Rechcherche enelver case sensitiv</t>
   </si>
   <si>
-    <t>Centrer le tout</t>
+    <t>Mieux gerer le centrage en haut</t>
+  </si>
+  <si>
+    <t>upgrade</t>
   </si>
 </sst>
 </file>
@@ -4680,7 +4683,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,10 +4725,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>532</v>
       </c>
       <c r="D2">
@@ -4734,10 +4737,10 @@
       <c r="E2" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>539</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -4751,13 +4754,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>559</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>533</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>538</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -4771,7 +4777,7 @@
       <c r="D4" t="s">
         <v>546</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>545</v>
       </c>
       <c r="K4" t="s">

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A86D6-4CD9-49B9-B5D9-8ACFEAA7013F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561A48C-2493-4918-B668-48DD68EC7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="31950" yWindow="1590" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="569">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1683,18 +1683,6 @@
     <t>QSS</t>
   </si>
   <si>
-    <t>creation</t>
-  </si>
-  <si>
-    <t>utiliser dictionnaire</t>
-  </si>
-  <si>
-    <t>créer un dico de dico</t>
-  </si>
-  <si>
-    <t>chaque dico a les boutonsblabalbal</t>
-  </si>
-  <si>
     <t>Soucis lecture requetes parfois</t>
   </si>
   <si>
@@ -1704,9 +1692,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>modif bug si traitement</t>
-  </si>
-  <si>
     <t>Pouvoir copier coller depuis le tablea</t>
   </si>
   <si>
@@ -1720,6 +1705,48 @@
   </si>
   <si>
     <t>upgrade</t>
+  </si>
+  <si>
+    <t>SplashScreen</t>
+  </si>
+  <si>
+    <t>mttrele fond du titre different</t>
+  </si>
+  <si>
+    <t>virer le truc de merde des codes brico etc</t>
+  </si>
+  <si>
+    <t>faire la confirmation de creation</t>
+  </si>
+  <si>
+    <t>Priorités d'ajd</t>
+  </si>
+  <si>
+    <t>Faire la conf crea</t>
+  </si>
+  <si>
+    <t>Pour plus tard</t>
+  </si>
+  <si>
+    <t>Améliorer design du splash screen</t>
+  </si>
+  <si>
+    <t>Rendre le splashscreen fonctionnel</t>
+  </si>
+  <si>
+    <t>Faire la batterie de test avec Sharepoint</t>
+  </si>
+  <si>
+    <t>background grisé pour les titres main</t>
+  </si>
+  <si>
+    <t>ouverture a chaque fois</t>
+  </si>
+  <si>
+    <t>Crea se fait pas assez vite</t>
+  </si>
+  <si>
+    <t>exe: ajouter les images et le QSS</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1770,6 +1797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1813,6 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,6 +2203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A622F592-2B79-4043-BD88-5A059C6B4F67}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2290,6 +2325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0978952-CB74-4206-8DB7-4AA284628601}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,6 +4239,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4680,10 +4717,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F132DCEF-7061-4387-96EC-D5B5BC9E0568}">
-  <dimension ref="A1:O36"/>
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4755,7 +4793,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>533</v>
@@ -4781,7 +4819,7 @@
         <v>545</v>
       </c>
       <c r="K4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4811,7 +4849,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4819,55 +4857,95 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>559</v>
+      </c>
+      <c r="K15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="K18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>566</v>
+      </c>
+      <c r="K19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4877,6 +4955,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
+  <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561A48C-2493-4918-B668-48DD68EC7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C37D5-79D5-4952-86D1-509415C2C8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31950" yWindow="1590" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
     <sheet name="MDPS" sheetId="5" r:id="rId2"/>
     <sheet name="Création" sheetId="4" r:id="rId3"/>
-    <sheet name="UI" sheetId="6" r:id="rId4"/>
-    <sheet name="Détails" sheetId="3" r:id="rId5"/>
+    <sheet name="TestPlan" sheetId="7" r:id="rId4"/>
+    <sheet name="UI" sheetId="6" r:id="rId5"/>
+    <sheet name="Détails" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="554">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -207,9 +208,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Créer l'executable</t>
-  </si>
-  <si>
     <t>CREATION</t>
   </si>
   <si>
@@ -1509,15 +1507,6 @@
     <t>Formulaire demande de changement: Faire le form avec tableau changeable</t>
   </si>
   <si>
-    <t>Formulaire demande de changement: Transmettre le formulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création executable: trouver librairie </t>
-  </si>
-  <si>
-    <t>Sharepoint: Panique</t>
-  </si>
-  <si>
     <t>Relier les champs au dataframe (pour la création)</t>
   </si>
   <si>
@@ -1545,9 +1534,6 @@
     <t>A faire</t>
   </si>
   <si>
-    <t xml:space="preserve">Formulaire demande de changement: </t>
-  </si>
-  <si>
     <t>Performance: Modification</t>
   </si>
   <si>
@@ -1563,9 +1549,6 @@
     <t>Faire un signal de fermeture transmis à toutes les fenetres</t>
   </si>
   <si>
-    <t>Création executable: crypter le code</t>
-  </si>
-  <si>
     <t>Automatiser les champs de création ou tapper flemme ?</t>
   </si>
   <si>
@@ -1578,15 +1561,6 @@
     <t>Comprendre comment marche le excel</t>
   </si>
   <si>
-    <t>logWindow: griser pendant chargement</t>
-  </si>
-  <si>
-    <t>logwindow: sur entree lancer</t>
-  </si>
-  <si>
-    <t>Faire un fichier requete quand meme pas sur en fait</t>
-  </si>
-  <si>
     <t>Ssauvegarde et lecture du excel</t>
   </si>
   <si>
@@ -1617,9 +1591,6 @@
     <t>Checker l'écriture sur sharepoing</t>
   </si>
   <si>
-    <t>Atuom Creat</t>
-  </si>
-  <si>
     <t>LOGIN</t>
   </si>
   <si>
@@ -1683,12 +1654,6 @@
     <t>QSS</t>
   </si>
   <si>
-    <t>Soucis lecture requetes parfois</t>
-  </si>
-  <si>
-    <t>Faire un truc comme sur Access</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1707,46 +1672,37 @@
     <t>upgrade</t>
   </si>
   <si>
-    <t>SplashScreen</t>
-  </si>
-  <si>
     <t>mttrele fond du titre different</t>
   </si>
   <si>
-    <t>virer le truc de merde des codes brico etc</t>
-  </si>
-  <si>
-    <t>faire la confirmation de creation</t>
-  </si>
-  <si>
-    <t>Priorités d'ajd</t>
-  </si>
-  <si>
-    <t>Faire la conf crea</t>
-  </si>
-  <si>
-    <t>Pour plus tard</t>
-  </si>
-  <si>
-    <t>Améliorer design du splash screen</t>
-  </si>
-  <si>
-    <t>Rendre le splashscreen fonctionnel</t>
-  </si>
-  <si>
-    <t>Faire la batterie de test avec Sharepoint</t>
-  </si>
-  <si>
-    <t>background grisé pour les titres main</t>
-  </si>
-  <si>
-    <t>ouverture a chaque fois</t>
-  </si>
-  <si>
-    <t>Crea se fait pas assez vite</t>
-  </si>
-  <si>
-    <t>exe: ajouter les images et le QSS</t>
+    <t>Créer l'executable (manque les images et la QSS)</t>
+  </si>
+  <si>
+    <t>SplashScreen (pendant connexion et chargement des bdd)</t>
+  </si>
+  <si>
+    <t>Automatisation Creation (confirmer création)</t>
+  </si>
+  <si>
+    <t>Revoir les formats du tableau</t>
+  </si>
+  <si>
+    <t>Améliorer les performances de la fenêtre création</t>
+  </si>
+  <si>
+    <t>Faire le test plan et le l'utiliser</t>
+  </si>
+  <si>
+    <t>Fenêtre</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1847,6 +1803,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2340,1890 +2297,1890 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" t="s">
         <v>202</v>
       </c>
-      <c r="N1" t="s">
-        <v>203</v>
-      </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" t="s">
         <v>448</v>
       </c>
-      <c r="C2" t="s">
-        <v>449</v>
-      </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" t="s">
         <v>207</v>
       </c>
-      <c r="I2" t="s">
-        <v>208</v>
-      </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M2" t="s">
         <v>472</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>473</v>
       </c>
-      <c r="N2" t="s">
-        <v>474</v>
-      </c>
       <c r="O2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
         <v>450</v>
       </c>
-      <c r="C3" t="s">
-        <v>451</v>
-      </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" t="s">
         <v>209</v>
       </c>
-      <c r="I3" t="s">
-        <v>210</v>
-      </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" t="s">
         <v>452</v>
       </c>
-      <c r="C4" t="s">
-        <v>453</v>
-      </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
         <v>211</v>
       </c>
-      <c r="I4" t="s">
-        <v>212</v>
-      </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" t="s">
         <v>454</v>
       </c>
-      <c r="C5" t="s">
-        <v>455</v>
-      </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" t="s">
         <v>213</v>
       </c>
-      <c r="I5" t="s">
-        <v>214</v>
-      </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" t="s">
         <v>456</v>
       </c>
-      <c r="C6" t="s">
-        <v>457</v>
-      </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" t="s">
         <v>215</v>
       </c>
-      <c r="I6" t="s">
-        <v>216</v>
-      </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" t="s">
         <v>458</v>
       </c>
-      <c r="C7" t="s">
-        <v>459</v>
-      </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" t="s">
         <v>217</v>
       </c>
-      <c r="I7" t="s">
-        <v>218</v>
-      </c>
       <c r="J7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" t="s">
         <v>460</v>
       </c>
-      <c r="C8" t="s">
-        <v>461</v>
-      </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" t="s">
         <v>219</v>
       </c>
-      <c r="I8" t="s">
-        <v>220</v>
-      </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" t="s">
         <v>462</v>
       </c>
-      <c r="C9" t="s">
-        <v>463</v>
-      </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" t="s">
         <v>221</v>
       </c>
-      <c r="I9" t="s">
-        <v>222</v>
-      </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" t="s">
         <v>464</v>
       </c>
-      <c r="C10" t="s">
-        <v>465</v>
-      </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" t="s">
         <v>223</v>
       </c>
-      <c r="I10" t="s">
-        <v>224</v>
-      </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
         <v>466</v>
       </c>
-      <c r="C11" t="s">
-        <v>467</v>
-      </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" t="s">
         <v>225</v>
       </c>
-      <c r="I11" t="s">
-        <v>226</v>
-      </c>
       <c r="J11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
         <v>468</v>
       </c>
-      <c r="C12" t="s">
-        <v>469</v>
-      </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" t="s">
         <v>227</v>
       </c>
-      <c r="I12" t="s">
-        <v>228</v>
-      </c>
       <c r="J12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" t="s">
         <v>470</v>
       </c>
-      <c r="C13" t="s">
-        <v>471</v>
-      </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" t="s">
         <v>229</v>
       </c>
-      <c r="I13" t="s">
-        <v>230</v>
-      </c>
       <c r="J13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" t="s">
         <v>231</v>
       </c>
-      <c r="I14" t="s">
-        <v>232</v>
-      </c>
       <c r="J14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" t="s">
         <v>233</v>
       </c>
-      <c r="I15" t="s">
-        <v>234</v>
-      </c>
       <c r="J15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" t="s">
         <v>235</v>
       </c>
-      <c r="I16" t="s">
-        <v>236</v>
-      </c>
       <c r="J16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I17" t="s">
         <v>237</v>
       </c>
-      <c r="I17" t="s">
-        <v>238</v>
-      </c>
       <c r="J17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" t="s">
         <v>239</v>
       </c>
-      <c r="I18" t="s">
-        <v>240</v>
-      </c>
       <c r="J18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" t="s">
         <v>241</v>
       </c>
-      <c r="I19" t="s">
-        <v>242</v>
-      </c>
       <c r="J19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20" t="s">
         <v>243</v>
       </c>
-      <c r="I20" t="s">
-        <v>244</v>
-      </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H21" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" t="s">
         <v>245</v>
       </c>
-      <c r="I21" t="s">
-        <v>246</v>
-      </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" t="s">
         <v>247</v>
       </c>
-      <c r="I22" t="s">
-        <v>248</v>
-      </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" t="s">
         <v>250</v>
       </c>
-      <c r="I24" t="s">
-        <v>251</v>
-      </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" t="s">
         <v>252</v>
       </c>
-      <c r="I25" t="s">
-        <v>253</v>
-      </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
         <v>254</v>
       </c>
-      <c r="I26" t="s">
-        <v>255</v>
-      </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" t="s">
         <v>256</v>
       </c>
-      <c r="I27" t="s">
-        <v>257</v>
-      </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" t="s">
         <v>258</v>
       </c>
-      <c r="I28" t="s">
-        <v>259</v>
-      </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" t="s">
         <v>260</v>
       </c>
-      <c r="I29" t="s">
-        <v>261</v>
-      </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" t="s">
         <v>262</v>
       </c>
-      <c r="I30" t="s">
-        <v>263</v>
-      </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H31" t="s">
+        <v>263</v>
+      </c>
+      <c r="I31" t="s">
         <v>264</v>
       </c>
-      <c r="I31" t="s">
-        <v>265</v>
-      </c>
       <c r="J31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I32" t="s">
         <v>266</v>
       </c>
-      <c r="I32" t="s">
-        <v>267</v>
-      </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" t="s">
         <v>268</v>
       </c>
-      <c r="I33" t="s">
-        <v>269</v>
-      </c>
       <c r="J33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" t="s">
         <v>270</v>
       </c>
-      <c r="I34" t="s">
-        <v>271</v>
-      </c>
       <c r="J34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" t="s">
         <v>272</v>
       </c>
-      <c r="I35" t="s">
-        <v>273</v>
-      </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H36" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" t="s">
         <v>274</v>
       </c>
-      <c r="I36" t="s">
-        <v>275</v>
-      </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" t="s">
+        <v>275</v>
+      </c>
+      <c r="I37" t="s">
         <v>276</v>
       </c>
-      <c r="I37" t="s">
-        <v>277</v>
-      </c>
       <c r="J37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" t="s">
         <v>278</v>
       </c>
-      <c r="I38" t="s">
-        <v>279</v>
-      </c>
       <c r="J38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" t="s">
         <v>280</v>
       </c>
-      <c r="I39" t="s">
-        <v>281</v>
-      </c>
       <c r="J39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" t="s">
         <v>282</v>
       </c>
-      <c r="I40" t="s">
-        <v>283</v>
-      </c>
       <c r="J40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" t="s">
         <v>284</v>
       </c>
-      <c r="I41" t="s">
-        <v>285</v>
-      </c>
       <c r="J41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
         <v>286</v>
       </c>
-      <c r="I42" t="s">
-        <v>287</v>
-      </c>
       <c r="J42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" t="s">
         <v>288</v>
       </c>
-      <c r="I43" t="s">
-        <v>289</v>
-      </c>
       <c r="J43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H44" t="s">
+        <v>289</v>
+      </c>
+      <c r="I44" t="s">
         <v>290</v>
       </c>
-      <c r="I44" t="s">
-        <v>291</v>
-      </c>
       <c r="J44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" t="s">
         <v>292</v>
       </c>
-      <c r="I45" t="s">
-        <v>293</v>
-      </c>
       <c r="J45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" t="s">
         <v>294</v>
       </c>
-      <c r="I46" t="s">
-        <v>295</v>
-      </c>
       <c r="J46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47" t="s">
         <v>296</v>
       </c>
-      <c r="I47" t="s">
-        <v>297</v>
-      </c>
       <c r="J47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" t="s">
         <v>298</v>
       </c>
-      <c r="I48" t="s">
-        <v>299</v>
-      </c>
       <c r="J48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H49" t="s">
+        <v>299</v>
+      </c>
+      <c r="I49" t="s">
         <v>300</v>
       </c>
-      <c r="I49" t="s">
-        <v>301</v>
-      </c>
       <c r="J49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I50" t="s">
         <v>302</v>
       </c>
-      <c r="I50" t="s">
-        <v>303</v>
-      </c>
       <c r="J50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" t="s">
+        <v>303</v>
+      </c>
+      <c r="I51" t="s">
         <v>304</v>
       </c>
-      <c r="I51" t="s">
-        <v>305</v>
-      </c>
       <c r="J51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H52" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" t="s">
         <v>306</v>
       </c>
-      <c r="I52" t="s">
-        <v>307</v>
-      </c>
       <c r="J52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H53" t="s">
+        <v>307</v>
+      </c>
+      <c r="I53" t="s">
         <v>308</v>
       </c>
-      <c r="I53" t="s">
-        <v>309</v>
-      </c>
       <c r="J53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54" t="s">
         <v>310</v>
       </c>
-      <c r="I54" t="s">
-        <v>311</v>
-      </c>
       <c r="J54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
+        <v>311</v>
+      </c>
+      <c r="I55" t="s">
         <v>312</v>
       </c>
-      <c r="I55" t="s">
-        <v>313</v>
-      </c>
       <c r="J55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H56" t="s">
+        <v>313</v>
+      </c>
+      <c r="I56" t="s">
         <v>314</v>
       </c>
-      <c r="I56" t="s">
-        <v>315</v>
-      </c>
       <c r="J56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" t="s">
+        <v>315</v>
+      </c>
+      <c r="I57" t="s">
         <v>316</v>
       </c>
-      <c r="I57" t="s">
-        <v>317</v>
-      </c>
       <c r="J57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
+        <v>317</v>
+      </c>
+      <c r="I58" t="s">
         <v>318</v>
       </c>
-      <c r="I58" t="s">
-        <v>319</v>
-      </c>
       <c r="J58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H59" t="s">
+        <v>319</v>
+      </c>
+      <c r="I59" t="s">
         <v>320</v>
       </c>
-      <c r="I59" t="s">
-        <v>321</v>
-      </c>
       <c r="J59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H60" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" t="s">
         <v>322</v>
       </c>
-      <c r="I60" t="s">
-        <v>323</v>
-      </c>
       <c r="J60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" t="s">
+        <v>323</v>
+      </c>
+      <c r="I61" t="s">
         <v>324</v>
       </c>
-      <c r="I61" t="s">
-        <v>325</v>
-      </c>
       <c r="J61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H62" t="s">
+        <v>325</v>
+      </c>
+      <c r="I62" t="s">
         <v>326</v>
       </c>
-      <c r="I62" t="s">
-        <v>327</v>
-      </c>
       <c r="J62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" t="s">
         <v>328</v>
       </c>
-      <c r="I63" t="s">
-        <v>329</v>
-      </c>
       <c r="J63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H64" t="s">
+        <v>329</v>
+      </c>
+      <c r="I64" t="s">
         <v>330</v>
       </c>
-      <c r="I64" t="s">
-        <v>331</v>
-      </c>
       <c r="J64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
+        <v>331</v>
+      </c>
+      <c r="I65" t="s">
         <v>332</v>
       </c>
-      <c r="I65" t="s">
-        <v>333</v>
-      </c>
       <c r="J65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H66" t="s">
+        <v>333</v>
+      </c>
+      <c r="I66" t="s">
         <v>334</v>
       </c>
-      <c r="I66" t="s">
-        <v>335</v>
-      </c>
       <c r="J66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H67" t="s">
+        <v>335</v>
+      </c>
+      <c r="I67" t="s">
         <v>336</v>
       </c>
-      <c r="I67" t="s">
-        <v>337</v>
-      </c>
       <c r="J67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H68" t="s">
+        <v>337</v>
+      </c>
+      <c r="I68" t="s">
         <v>338</v>
       </c>
-      <c r="I68" t="s">
-        <v>339</v>
-      </c>
       <c r="J68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H69" t="s">
+        <v>339</v>
+      </c>
+      <c r="I69" t="s">
         <v>340</v>
       </c>
-      <c r="I69" t="s">
-        <v>341</v>
-      </c>
       <c r="J69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H70" t="s">
+        <v>341</v>
+      </c>
+      <c r="I70" t="s">
         <v>342</v>
       </c>
-      <c r="I70" t="s">
-        <v>343</v>
-      </c>
       <c r="J70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H71" t="s">
+        <v>343</v>
+      </c>
+      <c r="I71" t="s">
         <v>344</v>
       </c>
-      <c r="I71" t="s">
-        <v>345</v>
-      </c>
       <c r="J71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H72" t="s">
+        <v>345</v>
+      </c>
+      <c r="I72" t="s">
         <v>346</v>
       </c>
-      <c r="I72" t="s">
-        <v>347</v>
-      </c>
       <c r="J72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H73" t="s">
+        <v>347</v>
+      </c>
+      <c r="I73" t="s">
         <v>348</v>
       </c>
-      <c r="I73" t="s">
-        <v>349</v>
-      </c>
       <c r="J73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H74" t="s">
+        <v>349</v>
+      </c>
+      <c r="I74" t="s">
         <v>350</v>
       </c>
-      <c r="I74" t="s">
-        <v>351</v>
-      </c>
       <c r="J74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H75" t="s">
+        <v>351</v>
+      </c>
+      <c r="I75" t="s">
         <v>352</v>
       </c>
-      <c r="I75" t="s">
-        <v>353</v>
-      </c>
       <c r="J75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H76" t="s">
+        <v>353</v>
+      </c>
+      <c r="I76" t="s">
         <v>354</v>
       </c>
-      <c r="I76" t="s">
-        <v>355</v>
-      </c>
       <c r="J76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H77" t="s">
+        <v>355</v>
+      </c>
+      <c r="I77" t="s">
         <v>356</v>
       </c>
-      <c r="I77" t="s">
-        <v>357</v>
-      </c>
       <c r="J77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H78" t="s">
+        <v>357</v>
+      </c>
+      <c r="I78" t="s">
         <v>358</v>
       </c>
-      <c r="I78" t="s">
-        <v>359</v>
-      </c>
       <c r="J78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H79" t="s">
+        <v>359</v>
+      </c>
+      <c r="I79" t="s">
         <v>360</v>
       </c>
-      <c r="I79" t="s">
-        <v>361</v>
-      </c>
       <c r="J79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H80" t="s">
+        <v>361</v>
+      </c>
+      <c r="I80" t="s">
         <v>362</v>
       </c>
-      <c r="I80" t="s">
-        <v>363</v>
-      </c>
       <c r="J80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H81" t="s">
+        <v>363</v>
+      </c>
+      <c r="I81" t="s">
         <v>364</v>
       </c>
-      <c r="I81" t="s">
-        <v>365</v>
-      </c>
       <c r="J81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H82" t="s">
+        <v>365</v>
+      </c>
+      <c r="I82" t="s">
         <v>366</v>
       </c>
-      <c r="I82" t="s">
-        <v>367</v>
-      </c>
       <c r="J82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H83" t="s">
+        <v>367</v>
+      </c>
+      <c r="I83" t="s">
         <v>368</v>
       </c>
-      <c r="I83" t="s">
-        <v>369</v>
-      </c>
       <c r="J83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H84" t="s">
+        <v>369</v>
+      </c>
+      <c r="I84" t="s">
         <v>370</v>
       </c>
-      <c r="I84" t="s">
-        <v>371</v>
-      </c>
       <c r="J84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H85" t="s">
+        <v>371</v>
+      </c>
+      <c r="I85" t="s">
         <v>372</v>
       </c>
-      <c r="I85" t="s">
-        <v>373</v>
-      </c>
       <c r="J85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H86" t="s">
+        <v>373</v>
+      </c>
+      <c r="I86" t="s">
         <v>374</v>
       </c>
-      <c r="I86" t="s">
-        <v>375</v>
-      </c>
       <c r="J86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H87" t="s">
+        <v>375</v>
+      </c>
+      <c r="I87" t="s">
         <v>376</v>
       </c>
-      <c r="I87" t="s">
-        <v>377</v>
-      </c>
       <c r="J87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H88" t="s">
+        <v>377</v>
+      </c>
+      <c r="I88" t="s">
         <v>378</v>
       </c>
-      <c r="I88" t="s">
-        <v>379</v>
-      </c>
       <c r="J88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H89" t="s">
+        <v>379</v>
+      </c>
+      <c r="I89" t="s">
         <v>380</v>
       </c>
-      <c r="I89" t="s">
-        <v>381</v>
-      </c>
       <c r="J89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H90" t="s">
+        <v>381</v>
+      </c>
+      <c r="I90" t="s">
         <v>382</v>
       </c>
-      <c r="I90" t="s">
-        <v>383</v>
-      </c>
       <c r="J90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H91" t="s">
+        <v>383</v>
+      </c>
+      <c r="I91" t="s">
         <v>384</v>
       </c>
-      <c r="I91" t="s">
-        <v>385</v>
-      </c>
       <c r="J91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H92" t="s">
+        <v>385</v>
+      </c>
+      <c r="I92" t="s">
         <v>386</v>
       </c>
-      <c r="I92" t="s">
-        <v>387</v>
-      </c>
       <c r="J92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H93" t="s">
+        <v>387</v>
+      </c>
+      <c r="I93" t="s">
         <v>388</v>
       </c>
-      <c r="I93" t="s">
-        <v>389</v>
-      </c>
       <c r="J93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I94" t="s">
         <v>390</v>
       </c>
-      <c r="I94" t="s">
-        <v>391</v>
-      </c>
       <c r="J94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H95" t="s">
+        <v>391</v>
+      </c>
+      <c r="I95" t="s">
         <v>392</v>
       </c>
-      <c r="I95" t="s">
-        <v>393</v>
-      </c>
       <c r="J95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H96" t="s">
+        <v>393</v>
+      </c>
+      <c r="I96" t="s">
         <v>394</v>
       </c>
-      <c r="I96" t="s">
-        <v>395</v>
-      </c>
       <c r="J96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H97" t="s">
+        <v>395</v>
+      </c>
+      <c r="I97" t="s">
         <v>396</v>
       </c>
-      <c r="I97" t="s">
-        <v>397</v>
-      </c>
       <c r="J97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H98" t="s">
+        <v>397</v>
+      </c>
+      <c r="I98" t="s">
         <v>398</v>
       </c>
-      <c r="I98" t="s">
-        <v>399</v>
-      </c>
       <c r="J98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H99" t="s">
+        <v>399</v>
+      </c>
+      <c r="I99" t="s">
         <v>400</v>
       </c>
-      <c r="I99" t="s">
-        <v>401</v>
-      </c>
       <c r="J99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H100" t="s">
+        <v>401</v>
+      </c>
+      <c r="I100" t="s">
         <v>402</v>
       </c>
-      <c r="I100" t="s">
-        <v>403</v>
-      </c>
       <c r="J100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H101" t="s">
+        <v>403</v>
+      </c>
+      <c r="I101" t="s">
         <v>404</v>
       </c>
-      <c r="I101" t="s">
-        <v>405</v>
-      </c>
       <c r="J101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H102" t="s">
+        <v>405</v>
+      </c>
+      <c r="I102" t="s">
         <v>406</v>
       </c>
-      <c r="I102" t="s">
-        <v>407</v>
-      </c>
       <c r="J102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H103" t="s">
+        <v>407</v>
+      </c>
+      <c r="I103" t="s">
         <v>408</v>
       </c>
-      <c r="I103" t="s">
-        <v>409</v>
-      </c>
       <c r="J103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H104" t="s">
+        <v>409</v>
+      </c>
+      <c r="I104" t="s">
         <v>410</v>
       </c>
-      <c r="I104" t="s">
-        <v>411</v>
-      </c>
       <c r="J104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H105" t="s">
+        <v>411</v>
+      </c>
+      <c r="I105" t="s">
         <v>412</v>
       </c>
-      <c r="I105" t="s">
-        <v>413</v>
-      </c>
       <c r="J105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H106" t="s">
+        <v>413</v>
+      </c>
+      <c r="I106" t="s">
         <v>414</v>
       </c>
-      <c r="I106" t="s">
-        <v>415</v>
-      </c>
       <c r="J106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H107" t="s">
+        <v>415</v>
+      </c>
+      <c r="I107" t="s">
         <v>416</v>
       </c>
-      <c r="I107" t="s">
-        <v>417</v>
-      </c>
       <c r="J107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H108" t="s">
+        <v>417</v>
+      </c>
+      <c r="I108" t="s">
         <v>418</v>
       </c>
-      <c r="I108" t="s">
-        <v>419</v>
-      </c>
       <c r="J108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H109" t="s">
+        <v>419</v>
+      </c>
+      <c r="I109" t="s">
         <v>420</v>
       </c>
-      <c r="I109" t="s">
-        <v>421</v>
-      </c>
       <c r="J109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H110" t="s">
+        <v>421</v>
+      </c>
+      <c r="I110" t="s">
         <v>422</v>
       </c>
-      <c r="I110" t="s">
-        <v>423</v>
-      </c>
       <c r="J110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H111" t="s">
+        <v>423</v>
+      </c>
+      <c r="I111" t="s">
         <v>424</v>
       </c>
-      <c r="I111" t="s">
-        <v>425</v>
-      </c>
       <c r="J111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H112" t="s">
+        <v>425</v>
+      </c>
+      <c r="I112" t="s">
         <v>426</v>
       </c>
-      <c r="I112" t="s">
-        <v>427</v>
-      </c>
       <c r="J112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H113" t="s">
+        <v>427</v>
+      </c>
+      <c r="I113" t="s">
         <v>428</v>
       </c>
-      <c r="I113" t="s">
-        <v>429</v>
-      </c>
       <c r="J113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H114" t="s">
+        <v>429</v>
+      </c>
+      <c r="I114" t="s">
         <v>430</v>
       </c>
-      <c r="I114" t="s">
-        <v>431</v>
-      </c>
       <c r="J114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H115" t="s">
+        <v>431</v>
+      </c>
+      <c r="I115" t="s">
         <v>432</v>
       </c>
-      <c r="I115" t="s">
-        <v>433</v>
-      </c>
       <c r="J115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H116" t="s">
+        <v>433</v>
+      </c>
+      <c r="I116" t="s">
         <v>434</v>
       </c>
-      <c r="I116" t="s">
-        <v>435</v>
-      </c>
       <c r="J116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H117" t="s">
+        <v>435</v>
+      </c>
+      <c r="I117" t="s">
         <v>436</v>
       </c>
-      <c r="I117" t="s">
-        <v>437</v>
-      </c>
       <c r="J117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H118" t="s">
+        <v>437</v>
+      </c>
+      <c r="I118" t="s">
         <v>438</v>
       </c>
-      <c r="I118" t="s">
-        <v>439</v>
-      </c>
       <c r="J118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H119" t="s">
+        <v>439</v>
+      </c>
+      <c r="I119" t="s">
         <v>440</v>
       </c>
-      <c r="I119" t="s">
-        <v>441</v>
-      </c>
       <c r="J119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H120" t="s">
+        <v>441</v>
+      </c>
+      <c r="I120" t="s">
         <v>442</v>
       </c>
-      <c r="I120" t="s">
-        <v>443</v>
-      </c>
       <c r="J120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H121" t="s">
+        <v>443</v>
+      </c>
+      <c r="I121" t="s">
         <v>444</v>
       </c>
-      <c r="I121" t="s">
-        <v>445</v>
-      </c>
       <c r="J121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H122" t="s">
+        <v>445</v>
+      </c>
+      <c r="I122" t="s">
         <v>446</v>
       </c>
-      <c r="I122" t="s">
-        <v>447</v>
-      </c>
       <c r="J122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +4200,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,21 +4223,21 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4292,14 +4249,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -4308,22 +4265,22 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -4332,7 +4289,7 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4344,7 +4301,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>23</v>
+        <v>27.5</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4353,15 +4310,15 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>54</v>
@@ -4385,7 +4342,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4410,7 +4367,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4473,7 +4430,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.74193548387096775</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4483,11 +4440,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
+      <c r="A14" s="8" t="s">
+        <v>544</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
@@ -4498,7 +4455,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4512,7 +4469,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4526,7 +4483,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4540,7 +4497,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4554,7 +4511,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4568,7 +4525,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4582,7 +4539,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4596,7 +4553,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4610,7 +4567,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4623,11 +4580,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>516</v>
+      <c r="A24" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -4638,23 +4595,23 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>520</v>
+      <c r="A26" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4662,7 +4619,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4670,7 +4627,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4678,28 +4635,60 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>525</v>
+      <c r="A31" s="8" t="s">
+        <v>546</v>
       </c>
       <c r="B31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4716,12 +4705,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831202E-01DB-4142-A655-1643112DD9C2}">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F132DCEF-7061-4387-96EC-D5B5BC9E0568}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,118 +4759,118 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="I1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
       <c r="O1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D4" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="K4" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4857,12 +4878,12 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -4870,82 +4891,40 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>556</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>559</v>
-      </c>
-      <c r="K15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="K17" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="K18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>566</v>
-      </c>
-      <c r="K19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>557</v>
-      </c>
-      <c r="G22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -4953,13 +4932,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81565F2-C809-4864-BDA5-8C040865BE7F}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A13" sqref="A13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,128 +4990,88 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>505</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>514</v>
+        <v>500</v>
+      </c>
+      <c r="B17" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C37D5-79D5-4952-86D1-509415C2C8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20190F6D-DD42-4191-A667-C88FD6392BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="562">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Divers</t>
   </si>
   <si>
-    <t>Num commercant</t>
-  </si>
-  <si>
     <t>Colissimo</t>
   </si>
   <si>
@@ -1567,9 +1564,6 @@
     <t>Regarder si optimisation possible pour saisie requete</t>
   </si>
   <si>
-    <t>Améliorer le filtre (technique)(sur pression touche entrée et sur colonnes selectionnées)</t>
-  </si>
-  <si>
     <t>Mettre en place restiction des données dépôt et région (modele) (jpense on s'en bat les couilles</t>
   </si>
   <si>
@@ -1588,9 +1582,6 @@
     <t>Traitement des requetes lors de la création des requetes</t>
   </si>
   <si>
-    <t>Checker l'écriture sur sharepoing</t>
-  </si>
-  <si>
     <t>LOGIN</t>
   </si>
   <si>
@@ -1703,6 +1694,39 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Connexion 1</t>
+  </si>
+  <si>
+    <t>Connexion 2</t>
+  </si>
+  <si>
+    <t>Erreur connexion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Erreur connexion 2</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Création</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Upload SP</t>
+  </si>
+  <si>
+    <t>Création requete</t>
+  </si>
+  <si>
+    <t>Traitement requete</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1803,7 +1827,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2297,1890 +2320,1890 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
-        <v>202</v>
-      </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
         <v>201</v>
       </c>
-      <c r="N1" t="s">
-        <v>202</v>
-      </c>
       <c r="O1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
         <v>447</v>
       </c>
-      <c r="C2" t="s">
-        <v>448</v>
-      </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
         <v>206</v>
       </c>
-      <c r="I2" t="s">
-        <v>207</v>
-      </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M2" t="s">
         <v>471</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>472</v>
       </c>
-      <c r="N2" t="s">
-        <v>473</v>
-      </c>
       <c r="O2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" t="s">
         <v>449</v>
       </c>
-      <c r="C3" t="s">
-        <v>450</v>
-      </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" t="s">
         <v>208</v>
       </c>
-      <c r="I3" t="s">
-        <v>209</v>
-      </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
         <v>451</v>
       </c>
-      <c r="C4" t="s">
-        <v>452</v>
-      </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" t="s">
         <v>210</v>
       </c>
-      <c r="I4" t="s">
-        <v>211</v>
-      </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" t="s">
         <v>453</v>
       </c>
-      <c r="C5" t="s">
-        <v>454</v>
-      </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" t="s">
         <v>212</v>
       </c>
-      <c r="I5" t="s">
-        <v>213</v>
-      </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" t="s">
         <v>455</v>
       </c>
-      <c r="C6" t="s">
-        <v>456</v>
-      </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" t="s">
         <v>214</v>
       </c>
-      <c r="I6" t="s">
-        <v>215</v>
-      </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" t="s">
         <v>457</v>
       </c>
-      <c r="C7" t="s">
-        <v>458</v>
-      </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" t="s">
         <v>216</v>
       </c>
-      <c r="I7" t="s">
-        <v>217</v>
-      </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" t="s">
         <v>459</v>
       </c>
-      <c r="C8" t="s">
-        <v>460</v>
-      </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" t="s">
         <v>218</v>
       </c>
-      <c r="I8" t="s">
-        <v>219</v>
-      </c>
       <c r="J8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" t="s">
         <v>461</v>
       </c>
-      <c r="C9" t="s">
-        <v>462</v>
-      </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" t="s">
         <v>220</v>
       </c>
-      <c r="I9" t="s">
-        <v>221</v>
-      </c>
       <c r="J9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" t="s">
         <v>463</v>
       </c>
-      <c r="C10" t="s">
-        <v>464</v>
-      </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" t="s">
         <v>222</v>
       </c>
-      <c r="I10" t="s">
-        <v>223</v>
-      </c>
       <c r="J10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" t="s">
         <v>465</v>
       </c>
-      <c r="C11" t="s">
-        <v>466</v>
-      </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" t="s">
         <v>224</v>
       </c>
-      <c r="I11" t="s">
-        <v>225</v>
-      </c>
       <c r="J11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" t="s">
         <v>467</v>
       </c>
-      <c r="C12" t="s">
-        <v>468</v>
-      </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" t="s">
         <v>226</v>
       </c>
-      <c r="I12" t="s">
-        <v>227</v>
-      </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" t="s">
         <v>469</v>
       </c>
-      <c r="C13" t="s">
-        <v>470</v>
-      </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" t="s">
         <v>228</v>
       </c>
-      <c r="I13" t="s">
-        <v>229</v>
-      </c>
       <c r="J13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" t="s">
         <v>230</v>
       </c>
-      <c r="I14" t="s">
-        <v>231</v>
-      </c>
       <c r="J14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" t="s">
         <v>232</v>
       </c>
-      <c r="I15" t="s">
-        <v>233</v>
-      </c>
       <c r="J15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" t="s">
         <v>234</v>
       </c>
-      <c r="I16" t="s">
-        <v>235</v>
-      </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" t="s">
         <v>236</v>
       </c>
-      <c r="I17" t="s">
-        <v>237</v>
-      </c>
       <c r="J17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" t="s">
         <v>238</v>
       </c>
-      <c r="I18" t="s">
-        <v>239</v>
-      </c>
       <c r="J18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" t="s">
         <v>240</v>
       </c>
-      <c r="I19" t="s">
-        <v>241</v>
-      </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" t="s">
         <v>242</v>
       </c>
-      <c r="I20" t="s">
-        <v>243</v>
-      </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" t="s">
         <v>244</v>
       </c>
-      <c r="I21" t="s">
-        <v>245</v>
-      </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" t="s">
         <v>246</v>
       </c>
-      <c r="I22" t="s">
-        <v>247</v>
-      </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" t="s">
         <v>249</v>
       </c>
-      <c r="I24" t="s">
-        <v>250</v>
-      </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" t="s">
         <v>251</v>
       </c>
-      <c r="I25" t="s">
-        <v>252</v>
-      </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
+        <v>252</v>
+      </c>
+      <c r="I26" t="s">
         <v>253</v>
       </c>
-      <c r="I26" t="s">
-        <v>254</v>
-      </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" t="s">
         <v>255</v>
       </c>
-      <c r="I27" t="s">
-        <v>256</v>
-      </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" t="s">
         <v>257</v>
       </c>
-      <c r="I28" t="s">
-        <v>258</v>
-      </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" t="s">
         <v>259</v>
       </c>
-      <c r="I29" t="s">
-        <v>260</v>
-      </c>
       <c r="J29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I30" t="s">
         <v>261</v>
       </c>
-      <c r="I30" t="s">
-        <v>262</v>
-      </c>
       <c r="J30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31" t="s">
         <v>263</v>
       </c>
-      <c r="I31" t="s">
-        <v>264</v>
-      </c>
       <c r="J31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
+        <v>264</v>
+      </c>
+      <c r="I32" t="s">
         <v>265</v>
       </c>
-      <c r="I32" t="s">
-        <v>266</v>
-      </c>
       <c r="J32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" t="s">
         <v>267</v>
       </c>
-      <c r="I33" t="s">
-        <v>268</v>
-      </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I34" t="s">
         <v>269</v>
       </c>
-      <c r="I34" t="s">
-        <v>270</v>
-      </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" t="s">
+        <v>270</v>
+      </c>
+      <c r="I35" t="s">
         <v>271</v>
       </c>
-      <c r="I35" t="s">
-        <v>272</v>
-      </c>
       <c r="J35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
+        <v>272</v>
+      </c>
+      <c r="I36" t="s">
         <v>273</v>
       </c>
-      <c r="I36" t="s">
-        <v>274</v>
-      </c>
       <c r="J36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" t="s">
+        <v>274</v>
+      </c>
+      <c r="I37" t="s">
         <v>275</v>
       </c>
-      <c r="I37" t="s">
-        <v>276</v>
-      </c>
       <c r="J37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" t="s">
         <v>277</v>
       </c>
-      <c r="I38" t="s">
-        <v>278</v>
-      </c>
       <c r="J38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" t="s">
         <v>279</v>
       </c>
-      <c r="I39" t="s">
-        <v>280</v>
-      </c>
       <c r="J39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" t="s">
         <v>281</v>
       </c>
-      <c r="I40" t="s">
-        <v>282</v>
-      </c>
       <c r="J40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
+        <v>282</v>
+      </c>
+      <c r="I41" t="s">
         <v>283</v>
       </c>
-      <c r="I41" t="s">
-        <v>284</v>
-      </c>
       <c r="J41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" t="s">
         <v>285</v>
       </c>
-      <c r="I42" t="s">
-        <v>286</v>
-      </c>
       <c r="J42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" t="s">
         <v>287</v>
       </c>
-      <c r="I43" t="s">
-        <v>288</v>
-      </c>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" t="s">
+        <v>288</v>
+      </c>
+      <c r="I44" t="s">
         <v>289</v>
       </c>
-      <c r="I44" t="s">
-        <v>290</v>
-      </c>
       <c r="J44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45" t="s">
         <v>291</v>
       </c>
-      <c r="I45" t="s">
-        <v>292</v>
-      </c>
       <c r="J45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" t="s">
+        <v>292</v>
+      </c>
+      <c r="I46" t="s">
         <v>293</v>
       </c>
-      <c r="I46" t="s">
-        <v>294</v>
-      </c>
       <c r="J46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" t="s">
+        <v>294</v>
+      </c>
+      <c r="I47" t="s">
         <v>295</v>
       </c>
-      <c r="I47" t="s">
-        <v>296</v>
-      </c>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I48" t="s">
         <v>297</v>
       </c>
-      <c r="I48" t="s">
-        <v>298</v>
-      </c>
       <c r="J48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H49" t="s">
+        <v>298</v>
+      </c>
+      <c r="I49" t="s">
         <v>299</v>
       </c>
-      <c r="I49" t="s">
-        <v>300</v>
-      </c>
       <c r="J49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H50" t="s">
+        <v>300</v>
+      </c>
+      <c r="I50" t="s">
         <v>301</v>
       </c>
-      <c r="I50" t="s">
-        <v>302</v>
-      </c>
       <c r="J50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
+        <v>302</v>
+      </c>
+      <c r="I51" t="s">
         <v>303</v>
       </c>
-      <c r="I51" t="s">
-        <v>304</v>
-      </c>
       <c r="J51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52" t="s">
         <v>305</v>
       </c>
-      <c r="I52" t="s">
-        <v>306</v>
-      </c>
       <c r="J52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H53" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" t="s">
         <v>307</v>
       </c>
-      <c r="I53" t="s">
-        <v>308</v>
-      </c>
       <c r="J53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H54" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" t="s">
         <v>309</v>
       </c>
-      <c r="I54" t="s">
-        <v>310</v>
-      </c>
       <c r="J54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
+        <v>310</v>
+      </c>
+      <c r="I55" t="s">
         <v>311</v>
       </c>
-      <c r="I55" t="s">
-        <v>312</v>
-      </c>
       <c r="J55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" t="s">
         <v>313</v>
       </c>
-      <c r="I56" t="s">
-        <v>314</v>
-      </c>
       <c r="J56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
+        <v>314</v>
+      </c>
+      <c r="I57" t="s">
         <v>315</v>
       </c>
-      <c r="I57" t="s">
-        <v>316</v>
-      </c>
       <c r="J57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" t="s">
+        <v>316</v>
+      </c>
+      <c r="I58" t="s">
         <v>317</v>
       </c>
-      <c r="I58" t="s">
-        <v>318</v>
-      </c>
       <c r="J58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H59" t="s">
+        <v>318</v>
+      </c>
+      <c r="I59" t="s">
         <v>319</v>
       </c>
-      <c r="I59" t="s">
-        <v>320</v>
-      </c>
       <c r="J59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H60" t="s">
+        <v>320</v>
+      </c>
+      <c r="I60" t="s">
         <v>321</v>
       </c>
-      <c r="I60" t="s">
-        <v>322</v>
-      </c>
       <c r="J60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H61" t="s">
+        <v>322</v>
+      </c>
+      <c r="I61" t="s">
         <v>323</v>
       </c>
-      <c r="I61" t="s">
-        <v>324</v>
-      </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H62" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" t="s">
         <v>325</v>
       </c>
-      <c r="I62" t="s">
-        <v>326</v>
-      </c>
       <c r="J62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" t="s">
+        <v>326</v>
+      </c>
+      <c r="I63" t="s">
         <v>327</v>
       </c>
-      <c r="I63" t="s">
-        <v>328</v>
-      </c>
       <c r="J63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
+        <v>328</v>
+      </c>
+      <c r="I64" t="s">
         <v>329</v>
       </c>
-      <c r="I64" t="s">
-        <v>330</v>
-      </c>
       <c r="J64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H65" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65" t="s">
         <v>331</v>
       </c>
-      <c r="I65" t="s">
-        <v>332</v>
-      </c>
       <c r="J65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H66" t="s">
+        <v>332</v>
+      </c>
+      <c r="I66" t="s">
         <v>333</v>
       </c>
-      <c r="I66" t="s">
-        <v>334</v>
-      </c>
       <c r="J66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
+        <v>334</v>
+      </c>
+      <c r="I67" t="s">
         <v>335</v>
       </c>
-      <c r="I67" t="s">
-        <v>336</v>
-      </c>
       <c r="J67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" t="s">
         <v>337</v>
       </c>
-      <c r="I68" t="s">
-        <v>338</v>
-      </c>
       <c r="J68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H69" t="s">
+        <v>338</v>
+      </c>
+      <c r="I69" t="s">
         <v>339</v>
       </c>
-      <c r="I69" t="s">
-        <v>340</v>
-      </c>
       <c r="J69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H70" t="s">
+        <v>340</v>
+      </c>
+      <c r="I70" t="s">
         <v>341</v>
       </c>
-      <c r="I70" t="s">
-        <v>342</v>
-      </c>
       <c r="J70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H71" t="s">
+        <v>342</v>
+      </c>
+      <c r="I71" t="s">
         <v>343</v>
       </c>
-      <c r="I71" t="s">
-        <v>344</v>
-      </c>
       <c r="J71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H72" t="s">
+        <v>344</v>
+      </c>
+      <c r="I72" t="s">
         <v>345</v>
       </c>
-      <c r="I72" t="s">
-        <v>346</v>
-      </c>
       <c r="J72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H73" t="s">
+        <v>346</v>
+      </c>
+      <c r="I73" t="s">
         <v>347</v>
       </c>
-      <c r="I73" t="s">
-        <v>348</v>
-      </c>
       <c r="J73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H74" t="s">
+        <v>348</v>
+      </c>
+      <c r="I74" t="s">
         <v>349</v>
       </c>
-      <c r="I74" t="s">
-        <v>350</v>
-      </c>
       <c r="J74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H75" t="s">
+        <v>350</v>
+      </c>
+      <c r="I75" t="s">
         <v>351</v>
       </c>
-      <c r="I75" t="s">
-        <v>352</v>
-      </c>
       <c r="J75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H76" t="s">
+        <v>352</v>
+      </c>
+      <c r="I76" t="s">
         <v>353</v>
       </c>
-      <c r="I76" t="s">
-        <v>354</v>
-      </c>
       <c r="J76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" t="s">
+        <v>354</v>
+      </c>
+      <c r="I77" t="s">
         <v>355</v>
       </c>
-      <c r="I77" t="s">
-        <v>356</v>
-      </c>
       <c r="J77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H78" t="s">
+        <v>356</v>
+      </c>
+      <c r="I78" t="s">
         <v>357</v>
       </c>
-      <c r="I78" t="s">
-        <v>358</v>
-      </c>
       <c r="J78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H79" t="s">
+        <v>358</v>
+      </c>
+      <c r="I79" t="s">
         <v>359</v>
       </c>
-      <c r="I79" t="s">
-        <v>360</v>
-      </c>
       <c r="J79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H80" t="s">
+        <v>360</v>
+      </c>
+      <c r="I80" t="s">
         <v>361</v>
       </c>
-      <c r="I80" t="s">
-        <v>362</v>
-      </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H81" t="s">
+        <v>362</v>
+      </c>
+      <c r="I81" t="s">
         <v>363</v>
       </c>
-      <c r="I81" t="s">
-        <v>364</v>
-      </c>
       <c r="J81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H82" t="s">
+        <v>364</v>
+      </c>
+      <c r="I82" t="s">
         <v>365</v>
       </c>
-      <c r="I82" t="s">
-        <v>366</v>
-      </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H83" t="s">
+        <v>366</v>
+      </c>
+      <c r="I83" t="s">
         <v>367</v>
       </c>
-      <c r="I83" t="s">
-        <v>368</v>
-      </c>
       <c r="J83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H84" t="s">
+        <v>368</v>
+      </c>
+      <c r="I84" t="s">
         <v>369</v>
       </c>
-      <c r="I84" t="s">
-        <v>370</v>
-      </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H85" t="s">
+        <v>370</v>
+      </c>
+      <c r="I85" t="s">
         <v>371</v>
       </c>
-      <c r="I85" t="s">
-        <v>372</v>
-      </c>
       <c r="J85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H86" t="s">
+        <v>372</v>
+      </c>
+      <c r="I86" t="s">
         <v>373</v>
       </c>
-      <c r="I86" t="s">
-        <v>374</v>
-      </c>
       <c r="J86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H87" t="s">
+        <v>374</v>
+      </c>
+      <c r="I87" t="s">
         <v>375</v>
       </c>
-      <c r="I87" t="s">
-        <v>376</v>
-      </c>
       <c r="J87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H88" t="s">
+        <v>376</v>
+      </c>
+      <c r="I88" t="s">
         <v>377</v>
       </c>
-      <c r="I88" t="s">
-        <v>378</v>
-      </c>
       <c r="J88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H89" t="s">
+        <v>378</v>
+      </c>
+      <c r="I89" t="s">
         <v>379</v>
       </c>
-      <c r="I89" t="s">
-        <v>380</v>
-      </c>
       <c r="J89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H90" t="s">
+        <v>380</v>
+      </c>
+      <c r="I90" t="s">
         <v>381</v>
       </c>
-      <c r="I90" t="s">
-        <v>382</v>
-      </c>
       <c r="J90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H91" t="s">
+        <v>382</v>
+      </c>
+      <c r="I91" t="s">
         <v>383</v>
       </c>
-      <c r="I91" t="s">
-        <v>384</v>
-      </c>
       <c r="J91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H92" t="s">
+        <v>384</v>
+      </c>
+      <c r="I92" t="s">
         <v>385</v>
       </c>
-      <c r="I92" t="s">
-        <v>386</v>
-      </c>
       <c r="J92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H93" t="s">
+        <v>386</v>
+      </c>
+      <c r="I93" t="s">
         <v>387</v>
       </c>
-      <c r="I93" t="s">
-        <v>388</v>
-      </c>
       <c r="J93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H94" t="s">
+        <v>388</v>
+      </c>
+      <c r="I94" t="s">
         <v>389</v>
       </c>
-      <c r="I94" t="s">
-        <v>390</v>
-      </c>
       <c r="J94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H95" t="s">
+        <v>390</v>
+      </c>
+      <c r="I95" t="s">
         <v>391</v>
       </c>
-      <c r="I95" t="s">
-        <v>392</v>
-      </c>
       <c r="J95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H96" t="s">
+        <v>392</v>
+      </c>
+      <c r="I96" t="s">
         <v>393</v>
       </c>
-      <c r="I96" t="s">
-        <v>394</v>
-      </c>
       <c r="J96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H97" t="s">
+        <v>394</v>
+      </c>
+      <c r="I97" t="s">
         <v>395</v>
       </c>
-      <c r="I97" t="s">
-        <v>396</v>
-      </c>
       <c r="J97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
+        <v>396</v>
+      </c>
+      <c r="I98" t="s">
         <v>397</v>
       </c>
-      <c r="I98" t="s">
-        <v>398</v>
-      </c>
       <c r="J98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H99" t="s">
+        <v>398</v>
+      </c>
+      <c r="I99" t="s">
         <v>399</v>
       </c>
-      <c r="I99" t="s">
-        <v>400</v>
-      </c>
       <c r="J99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H100" t="s">
+        <v>400</v>
+      </c>
+      <c r="I100" t="s">
         <v>401</v>
       </c>
-      <c r="I100" t="s">
-        <v>402</v>
-      </c>
       <c r="J100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H101" t="s">
+        <v>402</v>
+      </c>
+      <c r="I101" t="s">
         <v>403</v>
       </c>
-      <c r="I101" t="s">
-        <v>404</v>
-      </c>
       <c r="J101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H102" t="s">
+        <v>404</v>
+      </c>
+      <c r="I102" t="s">
         <v>405</v>
       </c>
-      <c r="I102" t="s">
-        <v>406</v>
-      </c>
       <c r="J102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H103" t="s">
+        <v>406</v>
+      </c>
+      <c r="I103" t="s">
         <v>407</v>
       </c>
-      <c r="I103" t="s">
-        <v>408</v>
-      </c>
       <c r="J103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H104" t="s">
+        <v>408</v>
+      </c>
+      <c r="I104" t="s">
         <v>409</v>
       </c>
-      <c r="I104" t="s">
-        <v>410</v>
-      </c>
       <c r="J104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H105" t="s">
+        <v>410</v>
+      </c>
+      <c r="I105" t="s">
         <v>411</v>
       </c>
-      <c r="I105" t="s">
-        <v>412</v>
-      </c>
       <c r="J105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H106" t="s">
+        <v>412</v>
+      </c>
+      <c r="I106" t="s">
         <v>413</v>
       </c>
-      <c r="I106" t="s">
-        <v>414</v>
-      </c>
       <c r="J106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H107" t="s">
+        <v>414</v>
+      </c>
+      <c r="I107" t="s">
         <v>415</v>
       </c>
-      <c r="I107" t="s">
-        <v>416</v>
-      </c>
       <c r="J107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H108" t="s">
+        <v>416</v>
+      </c>
+      <c r="I108" t="s">
         <v>417</v>
       </c>
-      <c r="I108" t="s">
-        <v>418</v>
-      </c>
       <c r="J108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H109" t="s">
+        <v>418</v>
+      </c>
+      <c r="I109" t="s">
         <v>419</v>
       </c>
-      <c r="I109" t="s">
-        <v>420</v>
-      </c>
       <c r="J109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H110" t="s">
+        <v>420</v>
+      </c>
+      <c r="I110" t="s">
         <v>421</v>
       </c>
-      <c r="I110" t="s">
-        <v>422</v>
-      </c>
       <c r="J110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H111" t="s">
+        <v>422</v>
+      </c>
+      <c r="I111" t="s">
         <v>423</v>
       </c>
-      <c r="I111" t="s">
-        <v>424</v>
-      </c>
       <c r="J111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H112" t="s">
+        <v>424</v>
+      </c>
+      <c r="I112" t="s">
         <v>425</v>
       </c>
-      <c r="I112" t="s">
-        <v>426</v>
-      </c>
       <c r="J112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H113" t="s">
+        <v>426</v>
+      </c>
+      <c r="I113" t="s">
         <v>427</v>
       </c>
-      <c r="I113" t="s">
-        <v>428</v>
-      </c>
       <c r="J113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H114" t="s">
+        <v>428</v>
+      </c>
+      <c r="I114" t="s">
         <v>429</v>
       </c>
-      <c r="I114" t="s">
-        <v>430</v>
-      </c>
       <c r="J114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H115" t="s">
+        <v>430</v>
+      </c>
+      <c r="I115" t="s">
         <v>431</v>
       </c>
-      <c r="I115" t="s">
-        <v>432</v>
-      </c>
       <c r="J115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H116" t="s">
+        <v>432</v>
+      </c>
+      <c r="I116" t="s">
         <v>433</v>
       </c>
-      <c r="I116" t="s">
-        <v>434</v>
-      </c>
       <c r="J116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H117" t="s">
+        <v>434</v>
+      </c>
+      <c r="I117" t="s">
         <v>435</v>
       </c>
-      <c r="I117" t="s">
-        <v>436</v>
-      </c>
       <c r="J117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H118" t="s">
+        <v>436</v>
+      </c>
+      <c r="I118" t="s">
         <v>437</v>
       </c>
-      <c r="I118" t="s">
-        <v>438</v>
-      </c>
       <c r="J118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H119" t="s">
+        <v>438</v>
+      </c>
+      <c r="I119" t="s">
         <v>439</v>
       </c>
-      <c r="I119" t="s">
-        <v>440</v>
-      </c>
       <c r="J119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H120" t="s">
+        <v>440</v>
+      </c>
+      <c r="I120" t="s">
         <v>441</v>
       </c>
-      <c r="I120" t="s">
-        <v>442</v>
-      </c>
       <c r="J120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H121" t="s">
+        <v>442</v>
+      </c>
+      <c r="I121" t="s">
         <v>443</v>
       </c>
-      <c r="I121" t="s">
-        <v>444</v>
-      </c>
       <c r="J121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H122" t="s">
+        <v>444</v>
+      </c>
+      <c r="I122" t="s">
         <v>445</v>
       </c>
-      <c r="I122" t="s">
-        <v>446</v>
-      </c>
       <c r="J122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4197,10 +4220,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4223,21 +4246,21 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4249,14 +4272,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -4265,22 +4288,22 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -4289,7 +4312,7 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4301,7 +4324,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4310,7 +4333,7 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4321,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -4342,7 +4365,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4367,7 +4390,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4423,14 +4446,14 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.7857142857142857</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4440,11 +4463,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>544</v>
+      <c r="A14" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
@@ -4455,7 +4478,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4469,7 +4492,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4483,7 +4506,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4497,7 +4520,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4511,7 +4534,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4525,7 +4548,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4539,7 +4562,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4552,11 +4575,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>508</v>
+      <c r="A22" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>50</v>
@@ -4581,21 +4604,15 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4603,7 +4620,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4611,88 +4628,72 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>513</v>
+      <c r="A28" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>515</v>
+      <c r="A30" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>546</v>
+      <c r="A31" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="2" t="s">
         <v>545</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>502</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B582:B1048576 B1:B571">
+  <conditionalFormatting sqref="B580:B1048576 B1:B569">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4707,28 +4708,93 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831202E-01DB-4142-A655-1643112DD9C2}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" t="s">
         <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4759,118 +4825,118 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" t="s">
         <v>516</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>517</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
         <v>518</v>
-      </c>
-      <c r="G1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I1" t="s">
-        <v>520</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K4" t="s">
         <v>536</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="K4" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4878,12 +4944,12 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -4891,40 +4957,12 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="9"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4990,88 +5028,88 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" t="s">
         <v>493</v>
-      </c>
-      <c r="C4" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" t="s">
         <v>493</v>
-      </c>
-      <c r="C5" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" t="s">
         <v>495</v>
-      </c>
-      <c r="C7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" t="s">
         <v>500</v>
-      </c>
-      <c r="B17" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20190F6D-DD42-4191-A667-C88FD6392BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC53C4B-41CB-42F4-B081-6F79ACF472ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="32070" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="587">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1720,13 +1720,88 @@
     <t>Modification</t>
   </si>
   <si>
-    <t>Upload SP</t>
-  </si>
-  <si>
-    <t>Création requete</t>
-  </si>
-  <si>
     <t>Traitement requete</t>
+  </si>
+  <si>
+    <t>Modification admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification bloquée </t>
+  </si>
+  <si>
+    <t>Filtre</t>
+  </si>
+  <si>
+    <t>Ouverture Créa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main </t>
+  </si>
+  <si>
+    <t>Ouverture modif</t>
+  </si>
+  <si>
+    <t>Ouverture Suppr</t>
+  </si>
+  <si>
+    <t>Ouverture Requ</t>
+  </si>
+  <si>
+    <t>Confirmation (local)</t>
+  </si>
+  <si>
+    <t>Confirmation (SP)</t>
+  </si>
+  <si>
+    <t>Ouverture Fenêtre</t>
+  </si>
+  <si>
+    <t>Ouverture de tt les onglets</t>
+  </si>
+  <si>
+    <t>Création et ajout dans le main</t>
+  </si>
+  <si>
+    <t>Style bouton 2</t>
+  </si>
+  <si>
+    <t>Récupérer la liste de tt les dépots</t>
+  </si>
+  <si>
+    <t>Pouvoir selectionner chaque dépôt</t>
+  </si>
+  <si>
+    <t>Retirer la case vide une fois une selection effectuée</t>
+  </si>
+  <si>
+    <t>Pouvoir modifier le tableau</t>
+  </si>
+  <si>
+    <t>Annuler la modif</t>
+  </si>
+  <si>
+    <t>Confirmer la modif</t>
+  </si>
+  <si>
+    <t>Annuler suppr</t>
+  </si>
+  <si>
+    <t>Confirmer suppr</t>
+  </si>
+  <si>
+    <t>Récupérer la liste des requetes</t>
+  </si>
+  <si>
+    <t>Si 0 requêtes ne rien ouvrir</t>
+  </si>
+  <si>
+    <t>Accepter modif</t>
+  </si>
+  <si>
+    <t>Refuser modif</t>
+  </si>
+  <si>
+    <t>Annuler traitement</t>
   </si>
 </sst>
 </file>
@@ -4708,15 +4783,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831202E-01DB-4142-A655-1643112DD9C2}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4766,35 +4842,224 @@
       <c r="A6" t="s">
         <v>556</v>
       </c>
+      <c r="B6" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B7" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>556</v>
+      </c>
+      <c r="B8" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>556</v>
+      </c>
+      <c r="B9" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>564</v>
+      </c>
+      <c r="B10" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>560</v>
+        <v>556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>561</v>
+        <v>564</v>
+      </c>
+      <c r="B12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>558</v>
+      </c>
+      <c r="B23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>559</v>
+      </c>
+      <c r="B29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>559</v>
+      </c>
+      <c r="B30" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>559</v>
+      </c>
+      <c r="B31" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B32" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +5073,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4896,6 +5161,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>573</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>521</v>
       </c>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC53C4B-41CB-42F4-B081-6F79ACF472ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B798D3FE-FDF8-499B-B0E6-6FDD8E9074F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -4295,10 +4295,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CCEB15-3D11-4D0A-B678-DDAB2C4259D8}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="E5">
         <f>SUM(B:B)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="E7">
         <f>COUNTA(B:B)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="E13" s="7">
         <f>E5/E7</f>
-        <v>0.84848484848484851</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4710,11 +4710,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
         <v>512</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4726,11 +4726,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>542</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4749,22 +4749,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>546</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4788,7 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B798D3FE-FDF8-499B-B0E6-6FDD8E9074F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE3467-0F9D-4546-B310-B70F00873EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="580">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1705,103 +1705,82 @@
     <t>Erreur connexion 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
     <t>Erreur connexion 2</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t>Création</t>
   </si>
   <si>
     <t>Modification</t>
   </si>
   <si>
-    <t>Traitement requete</t>
-  </si>
-  <si>
-    <t>Modification admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modification bloquée </t>
-  </si>
-  <si>
-    <t>Filtre</t>
-  </si>
-  <si>
-    <t>Ouverture Créa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main </t>
-  </si>
-  <si>
-    <t>Ouverture modif</t>
-  </si>
-  <si>
-    <t>Ouverture Suppr</t>
-  </si>
-  <si>
-    <t>Ouverture Requ</t>
-  </si>
-  <si>
-    <t>Confirmation (local)</t>
-  </si>
-  <si>
-    <t>Confirmation (SP)</t>
-  </si>
-  <si>
-    <t>Ouverture Fenêtre</t>
-  </si>
-  <si>
-    <t>Ouverture de tt les onglets</t>
-  </si>
-  <si>
-    <t>Création et ajout dans le main</t>
-  </si>
-  <si>
     <t>Style bouton 2</t>
   </si>
   <si>
-    <t>Récupérer la liste de tt les dépots</t>
-  </si>
-  <si>
-    <t>Pouvoir selectionner chaque dépôt</t>
-  </si>
-  <si>
-    <t>Retirer la case vide une fois une selection effectuée</t>
-  </si>
-  <si>
-    <t>Pouvoir modifier le tableau</t>
-  </si>
-  <si>
-    <t>Annuler la modif</t>
-  </si>
-  <si>
-    <t>Confirmer la modif</t>
-  </si>
-  <si>
-    <t>Annuler suppr</t>
-  </si>
-  <si>
-    <t>Confirmer suppr</t>
-  </si>
-  <si>
-    <t>Récupérer la liste des requetes</t>
-  </si>
-  <si>
-    <t>Si 0 requêtes ne rien ouvrir</t>
-  </si>
-  <si>
-    <t>Accepter modif</t>
-  </si>
-  <si>
-    <t>Refuser modif</t>
-  </si>
-  <si>
-    <t>Annuler traitement</t>
+    <t>Nettoyage</t>
+  </si>
+  <si>
+    <t>Main-nonAdmin</t>
+  </si>
+  <si>
+    <t>Affichage données conditionnées</t>
+  </si>
+  <si>
+    <t>Génération fenêtre</t>
+  </si>
+  <si>
+    <t>Modif bloquée</t>
+  </si>
+  <si>
+    <t>Main-Admin</t>
+  </si>
+  <si>
+    <t>Modif possible</t>
+  </si>
+  <si>
+    <t>Génération fenetre</t>
+  </si>
+  <si>
+    <t>Rajout du dépôt</t>
+  </si>
+  <si>
+    <t>Modif dépôt</t>
+  </si>
+  <si>
+    <t>Main-SuperAdmin</t>
+  </si>
+  <si>
+    <t>Affichage integralité données</t>
+  </si>
+  <si>
+    <t>bouton réglage</t>
+  </si>
+  <si>
+    <t>DemandeMAJ</t>
+  </si>
+  <si>
+    <t>Selection du dépôt</t>
+  </si>
+  <si>
+    <t>Valider</t>
+  </si>
+  <si>
+    <t>Traitement de machin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacemnt </t>
+  </si>
+  <si>
+    <t>TraitementMaj</t>
+  </si>
+  <si>
+    <t>Retirer la requête</t>
+  </si>
+  <si>
+    <t>Valider la requête - MAJ LA BDD</t>
+  </si>
+  <si>
+    <t>CONFIRMATION</t>
   </si>
 </sst>
 </file>
@@ -4297,7 +4276,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -4786,10 +4765,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831202E-01DB-4142-A655-1643112DD9C2}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,7 +4793,10 @@
         <v>550</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4822,7 +4804,10 @@
         <v>550</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4830,239 +4815,290 @@
         <v>550</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>551</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>552</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
-        <v>560</v>
+        <v>558</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s">
-        <v>561</v>
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>561</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>565</v>
+        <v>560</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B11" t="s">
-        <v>566</v>
+        <v>561</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" t="s">
         <v>564</v>
       </c>
-      <c r="B12" t="s">
-        <v>567</v>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>565</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
+        <v>566</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B15" t="s">
-        <v>570</v>
+        <v>561</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>561</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>568</v>
+      </c>
+      <c r="B20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>558</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>558</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>571</v>
+      </c>
+      <c r="B27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>558</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>558</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B28" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>558</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>558</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>559</v>
-      </c>
-      <c r="B29" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>559</v>
-      </c>
-      <c r="B30" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>559</v>
-      </c>
-      <c r="B31" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>559</v>
-      </c>
-      <c r="B32" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>559</v>
-      </c>
-      <c r="B33" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5165,7 +5201,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>521</v>

--- a/AvanceBrico.xlsx
+++ b/AvanceBrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE3467-0F9D-4546-B310-B70F00873EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C1CFB-08BF-4A2C-AD98-BB7D6FFC88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
+    <workbookView xWindow="1380" yWindow="2880" windowWidth="24585" windowHeight="11385" activeTab="3" xr2:uid="{E3880643-3CE2-4F0A-A429-8A0A59B669F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateur non admin" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="581">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -1780,7 +1780,10 @@
     <t>Valider la requête - MAJ LA BDD</t>
   </si>
   <si>
-    <t>CONFIRMATION</t>
+    <t>SaveData</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
   </si>
 </sst>
 </file>
@@ -4765,10 +4768,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831202E-01DB-4142-A655-1643112DD9C2}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +4780,7 @@
     <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>547</v>
       </c>
@@ -4787,8 +4790,14 @@
       <c r="C1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>550</v>
       </c>
@@ -4798,8 +4807,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>579</v>
+      </c>
+      <c r="L2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>550</v>
       </c>
@@ -4810,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>550</v>
       </c>
@@ -4821,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>550</v>
       </c>
@@ -4832,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>550</v>
       </c>
@@ -4843,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>559</v>
       </c>
@@ -4854,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>559</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -4876,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>563</v>
       </c>
@@ -4887,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>563</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>563</v>
       </c>
@@ -4909,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>555</v>
       </c>
@@ -4920,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>555</v>
       </c>
@@ -4931,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>556</v>
       </c>
@@ -4942,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -5094,11 +5109,6 @@
       </c>
       <c r="C29">
         <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
